--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC356C92-9347-BD4A-A3CF-EC6AD6CB2991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD06A73-BEFB-A341-B285-9266D645F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="178">
   <si>
     <t>Bonheur</t>
   </si>
@@ -537,12 +537,6 @@
     <t>PlayStation Blue-Ray</t>
   </si>
   <si>
-    <t>G (1)</t>
-  </si>
-  <si>
-    <t>F (1)</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -577,6 +571,9 @@
   </si>
   <si>
     <t>tv</t>
+  </si>
+  <si>
+    <t>air_conditioner</t>
   </si>
 </sst>
 </file>
@@ -887,8 +884,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}" name="IMPACT_DET" displayName="IMPACT_DET" ref="A1:I46" totalsRowShown="0">
   <autoFilter ref="A1:I46" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:I24">
-    <sortCondition ref="G1:G46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+    <sortCondition ref="A1:A46"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{63E7E744-D15E-5040-BC35-D692B7183853}" name="Objet"/>
@@ -4299,10 +4296,10 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4350,34 +4347,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.4</v>
+        <v>225</v>
       </c>
       <c r="H2" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>9.6000000000000014</v>
+        <v>40</v>
       </c>
       <c r="I2" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>139</v>
@@ -4385,34 +4382,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G3" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>3.2</v>
+        <v>41</v>
       </c>
       <c r="H3" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>10.8</v>
+        <v>5</v>
       </c>
       <c r="I3" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>7.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>140</v>
@@ -4420,74 +4414,74 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G4" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H4" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>12</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="I4" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G5" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>1.18</v>
+        <v>3.2</v>
       </c>
       <c r="H5" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>50</v>
+        <v>10.8</v>
       </c>
       <c r="I5" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>7.7000000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4503,23 +4497,23 @@
       </c>
       <c r="G6" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>12.9</v>
+        <v>4</v>
       </c>
       <c r="H6" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I6" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4535,7 +4529,7 @@
       </c>
       <c r="G7" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="H7" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -4548,10 +4542,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4567,180 +4561,180 @@
       </c>
       <c r="G8" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2</v>
+        <v>12.9</v>
       </c>
       <c r="H8" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I8" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>3.3</v>
+        <v>0.88</v>
       </c>
       <c r="H9" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>8.25</v>
+        <v>50</v>
       </c>
       <c r="I9" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>632.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I10" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>379.5</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>1.23</v>
+        <v>3.3</v>
       </c>
       <c r="H11" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>20</v>
+        <v>8.25</v>
       </c>
       <c r="I11" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>2350</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D12">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="E12">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.3369999999999997</v>
+        <v>5</v>
       </c>
       <c r="H12" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="I12" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>4700</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.8289999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="H13" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I13" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>4935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -4759,215 +4753,215 @@
       </c>
       <c r="G14" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>40</v>
+        <v>1.23</v>
       </c>
       <c r="H14" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I14" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1899</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>1.125</v>
+        <v>1.9</v>
       </c>
       <c r="D15">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F15">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>45</v>
+        <v>2.3369999999999997</v>
       </c>
       <c r="H15" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>38.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="I15" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1329.3</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C16">
-        <v>1.25</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D16">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="G16" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>50</v>
+        <v>2.8289999999999997</v>
       </c>
       <c r="H16" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>29.599999999999994</v>
+        <v>46</v>
       </c>
       <c r="I16" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>949.5</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>33.6</v>
+        <v>138</v>
       </c>
       <c r="H17" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>40.799999999999997</v>
+        <v>4</v>
       </c>
       <c r="I17" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1950</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C18">
-        <v>0.65</v>
+        <v>1.5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G18" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>54.6</v>
+        <v>207</v>
       </c>
       <c r="H18" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>32</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="I18" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1300</v>
+        <v>742.8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C19">
-        <v>0.89</v>
+        <v>1.7</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E19">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="G19" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>74.760000000000005</v>
+        <v>234.6</v>
       </c>
       <c r="H19" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>41.5</v>
+        <v>3.8800000000000026</v>
       </c>
       <c r="I19" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>650</v>
+        <v>637.57000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G20" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="H20" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>51</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="I20" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>650</v>
+        <v>1609.4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4983,189 +4977,189 @@
       </c>
       <c r="G21" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="H21" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I21" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>619</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="D22">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="E22">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G22" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="H22" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>3.3999999999999986</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="I22" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>742.8</v>
+        <v>1329.3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C23">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="D23">
-        <v>0.97</v>
+        <v>1.6</v>
       </c>
       <c r="E23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.03</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>234.6</v>
+        <v>50</v>
       </c>
       <c r="H23" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>3.8800000000000026</v>
+        <v>29.599999999999994</v>
       </c>
       <c r="I23" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>637.57000000000005</v>
+        <v>949.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="D24">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E24">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F24">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G24" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>345</v>
+        <v>33.6</v>
       </c>
       <c r="H24" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>3.6000000000000014</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="I24" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1609.4</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>40</v>
+        <v>54.6</v>
       </c>
       <c r="H25" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I25" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>47.5</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="H26" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>30</v>
+        <v>41.5</v>
       </c>
       <c r="I26" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5175,15 +5169,15 @@
       </c>
       <c r="G27" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="H27" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I27" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5220,7 +5214,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -5348,7 +5342,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
         <v>161</v>
@@ -5367,7 +5361,7 @@
       </c>
       <c r="G33" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>209.8</v>
+        <v>55.7</v>
       </c>
       <c r="H33" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -5380,13 +5374,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>162</v>
       </c>
       <c r="C34">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5399,7 +5393,7 @@
       </c>
       <c r="G34" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>220.29000000000002</v>
+        <v>80.765000000000001</v>
       </c>
       <c r="H34" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -5412,7 +5406,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
         <v>161</v>
@@ -5431,7 +5425,7 @@
       </c>
       <c r="G35" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>55.7</v>
+        <v>209.8</v>
       </c>
       <c r="H35" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -5444,13 +5438,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
       </c>
       <c r="C36">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5463,7 +5457,7 @@
       </c>
       <c r="G36" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>80.765000000000001</v>
+        <v>220.29000000000002</v>
       </c>
       <c r="H36" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -5476,10 +5470,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5508,10 +5502,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C38">
         <v>1.25</v>
@@ -5540,10 +5534,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <v>2.4</v>
@@ -5572,10 +5566,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>2.4</v>
@@ -5604,30 +5598,30 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>4.5250000000000004</v>
+        <v>40</v>
       </c>
       <c r="H41" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I41" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
@@ -5636,30 +5630,30 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.2625000000000002</v>
+        <v>4.5250000000000005E-2</v>
       </c>
       <c r="H42" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I42" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
@@ -5668,13 +5662,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5687,7 +5681,7 @@
       </c>
       <c r="G43" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.2625000000000002</v>
+        <v>0.22625000000000003</v>
       </c>
       <c r="H43" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
@@ -5700,30 +5694,30 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
         <v>168</v>
       </c>
-      <c r="B44" t="s">
-        <v>172</v>
-      </c>
       <c r="C44">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>0.22625000000000003</v>
+        <v>2.2625000000000002</v>
       </c>
       <c r="H44" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I44" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
@@ -5732,30 +5726,30 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>4.5250000000000005E-2</v>
+        <v>2.2625000000000002</v>
       </c>
       <c r="H45" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I45" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
@@ -5764,7 +5758,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -5773,18 +5770,18 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>41</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="H46" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I46" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
@@ -5807,7 +5804,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B4">
         <v>1265</v>
@@ -5931,7 +5928,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>619</v>
@@ -6055,7 +6052,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15">
         <v>148</v>
@@ -6120,7 +6117,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19">
         <v>449.9</v>
@@ -6137,7 +6134,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20">
         <v>4.5250000000000004</v>
@@ -6154,7 +6151,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21">
         <v>41</v>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD06A73-BEFB-A341-B285-9266D645F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{564C6E40-C86E-3D47-9968-F783C5AA19FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="3" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Effet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="187">
   <si>
     <t>Bonheur</t>
   </si>
@@ -465,27 +465,9 @@
     <t>Positif</t>
   </si>
   <si>
-    <t>Chauffage Gaz naturel</t>
-  </si>
-  <si>
-    <t>Chauffage Mazout</t>
-  </si>
-  <si>
-    <t>Chauffage Pompe à chaleur</t>
-  </si>
-  <si>
-    <t>Lave-linge</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Ordinateur portable</t>
-  </si>
-  <si>
     <t>Objets</t>
   </si>
   <si>
@@ -510,18 +492,12 @@
     <t>80m³</t>
   </si>
   <si>
-    <t>Prix = prix/an</t>
-  </si>
-  <si>
     <t>Energie = consommation annuelle</t>
   </si>
   <si>
     <t>Consommation = L/utilisation</t>
   </si>
   <si>
-    <t>Détails Prix</t>
-  </si>
-  <si>
     <t>Détails energie</t>
   </si>
   <si>
@@ -531,49 +507,100 @@
     <t>Ultra HD</t>
   </si>
   <si>
-    <t>PlayStation jeu</t>
-  </si>
-  <si>
-    <t>PlayStation Blue-Ray</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Wifi</t>
-  </si>
-  <si>
-    <t>pOn</t>
-  </si>
-  <si>
-    <t>pStandby</t>
-  </si>
-  <si>
-    <t>pAPD</t>
-  </si>
-  <si>
-    <t>pDeep Standby</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Bouilloire</t>
+    <t>.-/year</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>kWh/h</t>
+  </si>
+  <si>
+    <t>kWh/yr</t>
+  </si>
+  <si>
+    <t>L/use</t>
+  </si>
+  <si>
+    <t>Wh/h</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
   </si>
   <si>
     <t>bulb</t>
   </si>
   <si>
-    <t>fridge</t>
-  </si>
-  <si>
-    <t>pc</t>
+    <t>air_conditioner</t>
+  </si>
+  <si>
+    <t>washing_machine</t>
+  </si>
+  <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>heat_pump_heating</t>
+  </si>
+  <si>
+    <t>natural_gas_heating</t>
+  </si>
+  <si>
+    <t>oil_heating</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>desktop_computer</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>playstation_bluray</t>
   </si>
   <si>
     <t>tv</t>
   </si>
   <si>
-    <t>air_conditioner</t>
+    <t>playstation_game</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>STANDBY</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>DEEP_STANDBY</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -715,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,13 +788,19 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -818,6 +851,10 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,25 +919,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}" name="IMPACT_DET" displayName="IMPACT_DET" ref="A1:I46" totalsRowShown="0">
-  <autoFilter ref="A1:I46" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}" name="IMPACT_DET" displayName="IMPACT_DET" ref="A1:J46" totalsRowShown="0">
+  <autoFilter ref="A1:J46" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
     <sortCondition ref="A1:A46"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{63E7E744-D15E-5040-BC35-D692B7183853}" name="Objet"/>
     <tableColumn id="2" xr3:uid="{995C0DE3-B678-AF46-9726-C51687216019}" name="Note"/>
     <tableColumn id="3" xr3:uid="{A7B4EFCE-0F17-6243-8248-A1ABD92FD344}" name="Energie (mult)"/>
     <tableColumn id="9" xr3:uid="{861D80EA-F7BB-444F-8C28-B5523AF7E900}" name="Bien-être - (db) (mult)"/>
     <tableColumn id="4" xr3:uid="{0026194B-BCA1-8D48-972A-AF0EA59C254F}" name="Bien-être + (db) (mult)"/>
     <tableColumn id="5" xr3:uid="{14BFBA85-AA08-1C4E-82BE-A697CB43A26E}" name="Finance (mult)"/>
-    <tableColumn id="6" xr3:uid="{371DA2E7-B1EC-3343-953B-D20FDE12043F}" name="Energie" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{D6430557-1BC5-EE43-B8A4-DFCB04C21A20}" name="Unité" dataDxfId="5">
+      <calculatedColumnFormula>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{371DA2E7-B1EC-3343-953B-D20FDE12043F}" name="Energie" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA79CB80-C283-244B-B0C9-858071D677E4}" name="Bien-être" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{CA79CB80-C283-244B-B0C9-858071D677E4}" name="Bien-être" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B0D3D9C2-4B65-A342-BDB7-AA6F58ACA14B}" name="Finance" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{B0D3D9C2-4B65-A342-BDB7-AA6F58ACA14B}" name="Finance" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -911,15 +951,18 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}" name="BASIC_VALUES" displayName="BASIC_VALUES" ref="A1:G21" totalsRowShown="0">
   <autoFilter ref="A1:G21" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{57906E33-1D7C-B446-856C-A0F434D4897D}" name="Objets"/>
     <tableColumn id="2" xr3:uid="{49FC516D-0A12-7642-8246-52FDE4471435}" name="Prix"/>
     <tableColumn id="3" xr3:uid="{D2033DA1-905E-3543-8E71-F6CB82C854CF}" name="Energie (kWh)"/>
     <tableColumn id="4" xr3:uid="{A5E3086E-A8B1-254B-B7F6-07ADBCCF40E6}" name="Bien-être - (db)"/>
-    <tableColumn id="5" xr3:uid="{403CBAE4-3EF2-1645-B339-E08C2FFF91EF}" name="Bien-être + (efficacité)" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{403CBAE4-3EF2-1645-B339-E08C2FFF91EF}" name="Bien-être + (efficacité)" dataDxfId="1">
       <calculatedColumnFormula>9.5 * 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7EEB676C-B3C0-2D44-9D52-173B531076F8}" name="Détails Prix"/>
+    <tableColumn id="6" xr3:uid="{7EEB676C-B3C0-2D44-9D52-173B531076F8}" name="Unité" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{C9201152-9979-6D4C-B966-FD29E7F7A4DD}" name="Détails energie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1235,26 +1278,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1684,26 +1727,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2501,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0CF06-8DF8-4760-BF57-8DBD28F66104}">
   <dimension ref="A1:BB80"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A41" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,25 +2555,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -4293,13 +4336,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347B036-3395-2744-A46B-A3A75762D659}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4310,13 +4353,14 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -4335,1455 +4379,1638 @@
       <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/h</v>
+      </c>
+      <c r="H2" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>1265</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>1.65</v>
+      </c>
+      <c r="D3">
+        <v>1.65</v>
+      </c>
+      <c r="E3">
+        <v>1.65</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/h</v>
+      </c>
+      <c r="H3" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>3.3</v>
+      </c>
+      <c r="I3" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>8.25</v>
+      </c>
+      <c r="J3" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>632.5</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/h</v>
+      </c>
+      <c r="H4" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>12.5</v>
+      </c>
+      <c r="J4" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>379.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>L/use</v>
+      </c>
+      <c r="H5" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>225</v>
       </c>
-      <c r="H2" s="17">
+      <c r="I5" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>40</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J5" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H6" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>41</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I6" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>5</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J6" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>0.8</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>1.2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G7" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H7" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>2.4</v>
       </c>
-      <c r="H4" s="17">
+      <c r="I7" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J7" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>8.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
         <v>101</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>0.8</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>0.9</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G8" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H8" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>3.2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I8" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>10.8</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J8" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>7.7000000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H9" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>4</v>
       </c>
-      <c r="H6" s="17">
+      <c r="I9" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>12</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J9" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>1.18</v>
       </c>
-      <c r="H7" s="17">
+      <c r="I10" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>50</v>
       </c>
-      <c r="I7" s="16">
+      <c r="J10" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>12.9</v>
       </c>
-      <c r="H8" s="17">
+      <c r="I11" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>50</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J11" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>0.88</v>
       </c>
-      <c r="H9" s="17">
+      <c r="I12" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>50</v>
       </c>
-      <c r="I9" s="16">
+      <c r="J12" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H13" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>33.6</v>
+      </c>
+      <c r="I13" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J13" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>0.65</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="G14" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H14" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>54.6</v>
+      </c>
+      <c r="I14" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>5</v>
-      </c>
-      <c r="I10" s="16">
+        <v>32</v>
+      </c>
+      <c r="J14" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11">
-        <v>1.65</v>
-      </c>
-      <c r="D11">
-        <v>1.65</v>
-      </c>
-      <c r="E11">
-        <v>1.65</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="16">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>0.89</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H15" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>3.3</v>
-      </c>
-      <c r="H11" s="17">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="I15" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>8.25</v>
-      </c>
-      <c r="I11" s="16">
+        <v>41.5</v>
+      </c>
+      <c r="J15" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>632.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12">
-        <v>2.5</v>
-      </c>
-      <c r="D12">
-        <v>2.5</v>
-      </c>
-      <c r="E12">
-        <v>2.5</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H16" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>5</v>
-      </c>
-      <c r="H12" s="17">
+        <v>84</v>
+      </c>
+      <c r="I16" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>12.5</v>
-      </c>
-      <c r="I12" s="16">
+        <v>51</v>
+      </c>
+      <c r="J16" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>379.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>L/use</v>
+      </c>
+      <c r="H17" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>47.5</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I17" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>30</v>
       </c>
-      <c r="I13" s="16">
+      <c r="J17" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/h</v>
+      </c>
+      <c r="H18" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>148</v>
+      </c>
+      <c r="I18" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/h</v>
+      </c>
+      <c r="H19" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>403</v>
+      </c>
+      <c r="I19" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H20" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>1.23</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I20" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>20</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J20" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>2350</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
         <v>1.9</v>
       </c>
-      <c r="D15">
+      <c r="D21">
         <v>1.2</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>1.9</v>
       </c>
-      <c r="F15">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G21" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H21" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>2.3369999999999997</v>
       </c>
-      <c r="H15" s="17">
+      <c r="I21" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>38</v>
       </c>
-      <c r="I15" s="16">
+      <c r="J21" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>4700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F16">
+      <c r="F22">
         <v>2.1</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G22" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H22" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>2.8289999999999997</v>
       </c>
-      <c r="H16" s="17">
+      <c r="I22" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>46</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J22" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>4935</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>.-/year</v>
+      </c>
+      <c r="H23" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>1695</v>
+      </c>
+      <c r="I23" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>60</v>
+      </c>
+      <c r="J23" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1.45</v>
+      </c>
+      <c r="G24" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>.-/year</v>
+      </c>
+      <c r="H24" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>2542.5</v>
+      </c>
+      <c r="I24" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>60</v>
+      </c>
+      <c r="J24" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>465.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>2.5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>.-/year</v>
+      </c>
+      <c r="H25" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>4237.5</v>
+      </c>
+      <c r="I25" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>60</v>
+      </c>
+      <c r="J25" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>802.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H26" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>55.7</v>
+      </c>
+      <c r="I26" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J26" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <v>1.45</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H27" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>80.765000000000001</v>
+      </c>
+      <c r="I27" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>53.000000000000007</v>
+      </c>
+      <c r="J27" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H28" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>209.8</v>
+      </c>
+      <c r="I28" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J28" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29">
+        <v>1.05</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H29" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>220.29000000000002</v>
+      </c>
+      <c r="I29" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>53.000000000000007</v>
+      </c>
+      <c r="J29" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/yr</v>
+      </c>
+      <c r="H30" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>138</v>
       </c>
-      <c r="H17" s="17">
+      <c r="I30" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>4</v>
       </c>
-      <c r="I17" s="16">
+      <c r="J30" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C18">
+      <c r="C31">
         <v>1.5</v>
       </c>
-      <c r="D18">
+      <c r="D31">
         <v>0.85</v>
       </c>
-      <c r="E18">
+      <c r="E31">
         <v>0.85</v>
       </c>
-      <c r="F18">
+      <c r="F31">
         <v>1.2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G31" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/yr</v>
+      </c>
+      <c r="H31" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>207</v>
       </c>
-      <c r="H18" s="17">
+      <c r="I31" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>3.3999999999999986</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J31" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>742.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C19">
+      <c r="C32">
         <v>1.7</v>
       </c>
-      <c r="D19">
+      <c r="D32">
         <v>0.97</v>
       </c>
-      <c r="E19">
+      <c r="E32">
         <v>0.97</v>
       </c>
-      <c r="F19">
+      <c r="F32">
         <v>1.03</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G32" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/yr</v>
+      </c>
+      <c r="H32" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>234.6</v>
       </c>
-      <c r="H19" s="17">
+      <c r="I32" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>3.8800000000000026</v>
       </c>
-      <c r="I19" s="16">
+      <c r="J32" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>637.57000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33">
         <v>2.5</v>
       </c>
-      <c r="D20">
+      <c r="D33">
         <v>0.9</v>
       </c>
-      <c r="E20">
+      <c r="E33">
         <v>0.9</v>
       </c>
-      <c r="F20">
+      <c r="F33">
         <v>2.6</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G33" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/yr</v>
+      </c>
+      <c r="H33" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>345</v>
       </c>
-      <c r="H20" s="17">
+      <c r="I33" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>3.6000000000000014</v>
       </c>
-      <c r="I20" s="16">
+      <c r="J33" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>1609.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H34" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>54</v>
+      </c>
+      <c r="I34" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J34" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>449.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>1.25</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.65</v>
+      </c>
+      <c r="G35" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H35" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>67.5</v>
+      </c>
+      <c r="I35" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J35" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>292.435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>2.4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2.11</v>
+      </c>
+      <c r="G36" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H36" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>129.6</v>
+      </c>
+      <c r="I36" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J36" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>949.28899999999987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37">
+        <v>2.4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/1000h</v>
+      </c>
+      <c r="H37" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>129.6</v>
+      </c>
+      <c r="I37" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>48</v>
+      </c>
+      <c r="J37" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>899.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H38" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>40</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I38" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>56</v>
       </c>
-      <c r="I21" s="16">
+      <c r="J38" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>1899</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C22">
+      <c r="C39">
         <v>1.125</v>
       </c>
-      <c r="D22">
+      <c r="D39">
         <v>1.4</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>0.7</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G39" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H39" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>45</v>
       </c>
-      <c r="H22" s="17">
+      <c r="I39" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J39" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>1329.3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C23">
+      <c r="C40">
         <v>1.25</v>
       </c>
-      <c r="D23">
+      <c r="D40">
         <v>1.6</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>0.5</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G40" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>kWh/cycle</v>
+      </c>
+      <c r="H40" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>50</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I40" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>29.599999999999994</v>
       </c>
-      <c r="I23" s="16">
+      <c r="J40" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>949.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24">
-        <v>0.4</v>
-      </c>
-      <c r="D24">
-        <v>0.8</v>
-      </c>
-      <c r="E24">
-        <v>0.8</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="16">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>L/use</v>
+      </c>
+      <c r="H41" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>33.6</v>
-      </c>
-      <c r="H24" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="I24" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25">
-        <v>0.65</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0.8</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>54.6</v>
-      </c>
-      <c r="H25" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>32</v>
-      </c>
-      <c r="I25" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26">
-        <v>0.89</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0.9</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>74.760000000000005</v>
-      </c>
-      <c r="H26" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>41.5</v>
-      </c>
-      <c r="I26" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>84</v>
-      </c>
-      <c r="H27" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>51</v>
-      </c>
-      <c r="I27" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>403</v>
-      </c>
-      <c r="H28" s="17">
+        <v>40</v>
+      </c>
+      <c r="I41" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>10</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J41" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H42" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>148</v>
-      </c>
-      <c r="H29" s="17">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="I42" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>10</v>
-      </c>
-      <c r="I29" s="16">
+        <v>29</v>
+      </c>
+      <c r="J42" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H43" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>1695</v>
-      </c>
-      <c r="H30" s="17">
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="I43" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>60</v>
-      </c>
-      <c r="I30" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31">
-        <v>1.5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1.45</v>
-      </c>
-      <c r="G31" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2542.5</v>
-      </c>
-      <c r="H31" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>60</v>
-      </c>
-      <c r="I31" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>465.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32">
-        <v>2.5</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2.5</v>
-      </c>
-      <c r="G32" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>4237.5</v>
-      </c>
-      <c r="H32" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>60</v>
-      </c>
-      <c r="I32" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>802.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>55.7</v>
-      </c>
-      <c r="H33" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I33" s="16">
+        <v>19</v>
+      </c>
+      <c r="J43" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34">
-        <v>1.45</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H44" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>80.765000000000001</v>
-      </c>
-      <c r="H34" s="17">
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="I44" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>53.000000000000007</v>
-      </c>
-      <c r="I34" s="16">
+        <v>9</v>
+      </c>
+      <c r="J44" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H45" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>209.8</v>
-      </c>
-      <c r="H35" s="17">
+        <v>0.22625000000000003</v>
+      </c>
+      <c r="I45" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I35" s="16">
+        <v>9</v>
+      </c>
+      <c r="J45" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36">
-        <v>1.05</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>220.29000000000002</v>
-      </c>
-      <c r="H36" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>53.000000000000007</v>
-      </c>
-      <c r="I36" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46">
+        <v>0.01</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>54</v>
-      </c>
-      <c r="H37" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I37" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>449.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38">
-        <v>1.25</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.65</v>
-      </c>
-      <c r="G38" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>67.5</v>
-      </c>
-      <c r="H38" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I38" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>292.435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39">
-        <v>2.4</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2.11</v>
-      </c>
-      <c r="G39" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>129.6</v>
-      </c>
-      <c r="H39" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I39" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>949.28899999999987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40">
-        <v>2.4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>129.6</v>
-      </c>
-      <c r="H40" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>48</v>
-      </c>
-      <c r="I40" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>899.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>40</v>
-      </c>
-      <c r="H41" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>10</v>
-      </c>
-      <c r="I41" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42">
-        <v>0.01</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24" t="str">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
+        <v>Wh/h</v>
+      </c>
+      <c r="H46" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
         <v>4.5250000000000005E-2</v>
       </c>
-      <c r="H42" s="17">
+      <c r="I46" s="17">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
         <v>-1</v>
       </c>
-      <c r="I42" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43">
-        <v>0.05</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>0.22625000000000003</v>
-      </c>
-      <c r="H43" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>9</v>
-      </c>
-      <c r="I43" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44">
-        <v>0.5</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.2625000000000002</v>
-      </c>
-      <c r="H44" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>19</v>
-      </c>
-      <c r="I44" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45">
-        <v>0.5</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>2.2625000000000002</v>
-      </c>
-      <c r="H45" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>9</v>
-      </c>
-      <c r="I45" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
-        <v>4.5250000000000004</v>
-      </c>
-      <c r="H46" s="17">
-        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
-        <v>29</v>
-      </c>
-      <c r="I46" s="16">
+      <c r="J46" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
@@ -5800,11 +6027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E6E793-FC4D-1D41-A169-C01E158ECE94}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5820,163 +6047,179 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>152</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B2">
-        <v>650</v>
+        <v>1265</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E2" s="23">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>173</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
       <c r="C3">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B4">
-        <v>1265</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="23">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5">
-        <v>1899</v>
+        <v>175</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5" s="23">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B6">
-        <v>2350</v>
+        <v>650</v>
       </c>
       <c r="C6">
-        <v>1.23</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E6" s="23">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7">
-        <v>619</v>
+        <v>168</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>0.88</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E7" s="23">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C8">
-        <v>0.88</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="23">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C9">
-        <v>1.18</v>
+        <v>403</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="23">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C10">
-        <v>12.9</v>
+        <v>1.18</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5984,140 +6227,163 @@
       <c r="E10" s="23">
         <v>50</v>
       </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>12.9</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="23">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>2350</v>
       </c>
       <c r="C12">
-        <v>47.5</v>
+        <v>1.23</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="23">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>158</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C13">
-        <v>225</v>
+        <v>55.7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="23">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>403</v>
+        <v>209.8</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="23">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>321</v>
       </c>
       <c r="C15">
-        <v>148</v>
+        <v>1695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="23">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="B16">
-        <v>321</v>
+        <v>619</v>
       </c>
       <c r="C16">
-        <v>1695</v>
+        <v>138</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E16" s="23">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" t="s">
-        <v>157</v>
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C17">
-        <v>209.8</v>
+        <v>47.5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="23">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C18">
-        <v>55.7</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="23">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>449.9</v>
@@ -6131,36 +6397,48 @@
       <c r="E19" s="23">
         <v>50</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B20">
+        <v>1899</v>
       </c>
       <c r="C20">
-        <v>4.5250000000000004</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E20" s="23">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="23">
         <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564C6E40-C86E-3D47-9968-F783C5AA19FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179B0C9-3134-8747-BDDB-F78EE93D222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="3" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Effet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="190">
   <si>
     <t>Bonheur</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>printer</t>
   </si>
 </sst>
 </file>
@@ -949,12 +958,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}" name="BASIC_VALUES" displayName="BASIC_VALUES" ref="A1:G21" totalsRowShown="0">
-  <autoFilter ref="A1:G21" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}" name="BASIC_VALUES" displayName="BASIC_VALUES" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
     <sortCondition ref="A1:A21"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{57906E33-1D7C-B446-856C-A0F434D4897D}" name="Objets"/>
     <tableColumn id="2" xr3:uid="{49FC516D-0A12-7642-8246-52FDE4471435}" name="Prix"/>
     <tableColumn id="3" xr3:uid="{D2033DA1-905E-3543-8E71-F6CB82C854CF}" name="Energie (kWh)"/>
@@ -964,6 +973,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7EEB676C-B3C0-2D44-9D52-173B531076F8}" name="Unité" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{C9201152-9979-6D4C-B966-FD29E7F7A4DD}" name="Détails energie"/>
+    <tableColumn id="8" xr3:uid="{A0E039F6-6E0E-5344-9D78-1096C3221426}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4338,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347B036-3395-2744-A46B-A3A75762D659}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="185" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
@@ -6025,13 +6035,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E6E793-FC4D-1D41-A169-C01E158ECE94}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6045,7 +6055,7 @@
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -6067,8 +6077,11 @@
       <c r="G1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6087,8 +6100,11 @@
       <c r="F2" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -6108,7 +6124,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -6127,8 +6143,11 @@
       <c r="F4" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -6144,8 +6163,11 @@
       <c r="F5" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -6165,7 +6187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -6180,7 +6202,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -6197,7 +6219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -6214,7 +6236,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -6229,7 +6251,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -6244,7 +6266,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -6264,7 +6286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -6281,7 +6303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -6298,7 +6320,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -6321,7 +6343,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -6339,6 +6361,9 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6440,6 +6465,16 @@
       <c r="G21" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="23">
+        <f>9.5 * 10</f>
+        <v>95</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179B0C9-3134-8747-BDDB-F78EE93D222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC92A8-0AE2-3D46-A4CC-D04FF8974C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="190">
   <si>
     <t>Bonheur</t>
   </si>
@@ -4349,10 +4349,10 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="185" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6041,7 +6041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6186,6 +6186,9 @@
       <c r="F6" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6285,6 +6288,9 @@
       <c r="F12" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6366,7 +6372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -6425,8 +6431,11 @@
       <c r="F19" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -6466,7 +6475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>189</v>
       </c>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC92A8-0AE2-3D46-A4CC-D04FF8974C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3179E0E-3747-A849-A3FC-5F7330CDB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="190">
   <si>
     <t>Bonheur</t>
   </si>
@@ -606,10 +606,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>printer</t>
+  </si>
+  <si>
+    <t>Etat</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7EEB676C-B3C0-2D44-9D52-173B531076F8}" name="Unité" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{C9201152-9979-6D4C-B966-FD29E7F7A4DD}" name="Détails energie"/>
-    <tableColumn id="8" xr3:uid="{A0E039F6-6E0E-5344-9D78-1096C3221426}" name="Colonne1"/>
+    <tableColumn id="8" xr3:uid="{A0E039F6-6E0E-5344-9D78-1096C3221426}" name="Etat"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6041,7 +6041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6078,7 +6078,7 @@
         <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6454,6 +6454,9 @@
       <c r="F20" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6477,7 +6480,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="23">
         <f>9.5 * 10</f>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3179E0E-3747-A849-A3FC-5F7330CDB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB1E93-5A62-474D-AEC6-6250DE54CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Effet" sheetId="1" r:id="rId1"/>
@@ -960,8 +960,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}" name="BASIC_VALUES" displayName="BASIC_VALUES" ref="A1:H22" totalsRowShown="0">
   <autoFilter ref="A1:H22" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition ref="H1:H22"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{57906E33-1D7C-B446-856C-A0F434D4897D}" name="Objets"/>
@@ -4348,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347B036-3395-2744-A46B-A3A75762D659}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="189" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
@@ -6041,7 +6041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6106,42 +6106,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
         <v>187</v>
@@ -6149,19 +6149,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="B5">
+        <v>650</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E5" s="23">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>187</v>
@@ -6169,19 +6172,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B6">
-        <v>650</v>
+        <v>2350</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>1.23</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E6" s="23">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>98</v>
@@ -6192,74 +6195,99 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>619</v>
       </c>
       <c r="C7">
-        <v>0.88</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E7" s="23">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>449.9</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>1899</v>
       </c>
       <c r="C9">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E9" s="23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C10">
-        <v>1.18</v>
+        <v>225</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="23">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11">
-        <v>12.9</v>
+        <v>0.88</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6271,194 +6299,166 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12">
-        <v>2350</v>
+        <v>181</v>
       </c>
       <c r="C12">
-        <v>1.23</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13">
-        <v>55.7</v>
+        <v>403</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="23">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C14">
-        <v>209.8</v>
+        <v>1.18</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="23">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15">
-        <v>321</v>
+        <v>170</v>
       </c>
       <c r="C15">
-        <v>1695</v>
+        <v>12.9</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="23">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16">
-        <v>619</v>
+        <v>177</v>
       </c>
       <c r="C16">
-        <v>138</v>
+        <v>55.7</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E16" s="23">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C17">
-        <v>47.5</v>
+        <v>209.8</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>321</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>1695</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="23">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19">
+        <v>47.5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19">
-        <v>449.9</v>
-      </c>
-      <c r="C19">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23">
-        <v>50</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20">
-        <v>1899</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E20" s="23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>188</v>
       </c>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB1E93-5A62-474D-AEC6-6250DE54CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F4BA4-B36C-3940-A2E2-B4DF6B5C79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Effet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="192">
   <si>
     <t>Bonheur</t>
   </si>
@@ -610,6 +610,12 @@
   </si>
   <si>
     <t>Etat</t>
+  </si>
+  <si>
+    <t>kWh/cubic foot</t>
+  </si>
+  <si>
+    <t>kWh/gallon</t>
   </si>
 </sst>
 </file>
@@ -928,8 +934,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}" name="IMPACT_DET" displayName="IMPACT_DET" ref="A1:J46" totalsRowShown="0">
-  <autoFilter ref="A1:J46" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}" name="IMPACT_DET" displayName="IMPACT_DET" ref="A1:J49" totalsRowShown="0">
+  <autoFilter ref="A1:J49" xr:uid="{CB7712E9-F7B8-7D4E-9E05-1FD32722E9CD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
     <sortCondition ref="A1:A46"/>
   </sortState>
@@ -961,7 +967,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}" name="BASIC_VALUES" displayName="BASIC_VALUES" ref="A1:H22" totalsRowShown="0">
   <autoFilter ref="A1:H22" xr:uid="{5AA88959-BC12-6042-A0E2-6720A897BAF3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
-    <sortCondition ref="H1:H22"/>
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{57906E33-1D7C-B446-856C-A0F434D4897D}" name="Objets"/>
@@ -4346,13 +4352,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347B036-3395-2744-A46B-A3A75762D659}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScale="189" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="168" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4556,6 +4562,9 @@
       <c r="A6" t="s">
         <v>181</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -4582,7 +4591,7 @@
       </c>
       <c r="J6" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6021,6 +6030,111 @@
         <v>-1</v>
       </c>
       <c r="J46" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>1.18</v>
+      </c>
+      <c r="I47" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>50</v>
+      </c>
+      <c r="J47" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>12.9</v>
+      </c>
+      <c r="I48" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>50</v>
+      </c>
+      <c r="J48" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="16">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
+        <v>0.88</v>
+      </c>
+      <c r="I49" s="17">
+        <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 5, FALSE) *IMPACT_DET[[#This Row],[Bien-être + (db) (mult)]] - VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 4, FALSE) *IMPACT_DET[[#This Row],[Bien-être - (db) (mult)]]</f>
+        <v>50</v>
+      </c>
+      <c r="J49" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 2, FALSE) *IMPACT_DET[[#This Row],[Finance (mult)]]</f>
         <v>0</v>
       </c>
@@ -6041,7 +6155,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6106,42 +6220,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>187</v>
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>187</v>
@@ -6149,22 +6263,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5">
-        <v>650</v>
+        <v>175</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5" s="23">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
         <v>187</v>
@@ -6172,19 +6283,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B6">
-        <v>2350</v>
+        <v>650</v>
       </c>
       <c r="C6">
-        <v>1.23</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E6" s="23">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>98</v>
@@ -6195,99 +6306,77 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7">
-        <v>619</v>
+        <v>168</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>0.88</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E7" s="23">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>187</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B8">
-        <v>449.9</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="23">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9">
-        <v>1899</v>
+        <v>174</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E9" s="23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10">
-        <v>225</v>
+        <v>1.18</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="23">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11">
-        <v>0.88</v>
+        <v>12.9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6299,137 +6388,149 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>2350</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>1.23</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C13">
-        <v>403</v>
+        <v>55.7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>1.18</v>
+        <v>209.8</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="23">
         <v>50</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>321</v>
       </c>
       <c r="C15">
-        <v>12.9</v>
+        <v>1695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="23">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16">
-        <v>55.7</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="E16" s="23">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <f>9.5 * 10</f>
+        <v>95</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>619</v>
       </c>
       <c r="C17">
-        <v>209.8</v>
+        <v>138</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E17" s="23">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18">
-        <v>321</v>
+        <v>172</v>
       </c>
       <c r="C18">
-        <v>1695</v>
+        <v>47.5</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="23">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19">
-        <v>47.5</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>160</v>
@@ -6438,55 +6539,71 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>449.9</v>
       </c>
       <c r="C20">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21">
+        <v>1899</v>
+      </c>
+      <c r="C21">
         <v>40</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D21">
+        <v>44</v>
+      </c>
+      <c r="E21" s="23">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21">
-        <v>4.5250000000000004</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="23">
-        <f>9.5 * 10</f>
-        <v>95</v>
-      </c>
-      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F4BA4-B36C-3940-A2E2-B4DF6B5C79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BA8FA-5B33-E245-BE06-F6E5A4780B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>

--- a/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
+++ b/Dialog-content/code/srcs/Effet_Core_Mecanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Dialog-content/code/srcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BA8FA-5B33-E245-BE06-F6E5A4780B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818252D3-5F3D-6640-86B1-4DF3821ABBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="4" xr2:uid="{7A2FE946-C167-4F95-B414-ADE868C81E0F}"/>
   </bookViews>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G18" s="24" t="str">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 6, FALSE)</f>
-        <v>kWh/h</v>
+        <v>W</v>
       </c>
       <c r="H18" s="16">
         <f>VLOOKUP(IMPACT_DET[[#This Row],[Objet]], BASIC_VALUES[], 3, FALSE) *IMPACT_DET[[#This Row],[Energie (mult)]]</f>
@@ -6155,7 +6155,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6275,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>187</v>
